--- a/medicine/Mort/Décès_en_1951/Décès_en_1951.xlsx
+++ b/medicine/Mort/Décès_en_1951/Décès_en_1951.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1951</t>
+          <t>Décès_en_1951</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1951</t>
+          <t>Décès_en_1951</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Date précise inconnue
-René Blin, compositeur français (° 13 novembre 1884).
+          <t>Date précise inconnue</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>René Blin, compositeur français (° 13 novembre 1884).
 Victor Boner, peintre de marines français (° 1871).
 Émile Boutin, architecte, peintre, graveur et sculpteur français (° 26 août 1874).
 Jean Deville, peintre français (° 27 novembre 1872).
@@ -539,9 +556,43 @@
 Auguste Silice, peintre et décorateur français (° 11 février 1880).
 Casimir Stefaniak, footballeur franco-polonais (° 27 septembre 1920).
 Vladimir de Terlikowski, peintre polonais (° 23 avril 1873).
-Giulio Romano Vercelli, peintre italien (° 1871).
-Janvier
-3 janvier : Ferdinand Barlow, compositeur français (° 2 octobre 1881).
+Giulio Romano Vercelli, peintre italien (° 1871).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1951</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1951</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3 janvier : Ferdinand Barlow, compositeur français (° 2 octobre 1881).
 5 janvier :
 Philip Jaisohn, homme politique, militant indépendantiste et journaliste coréen puis américain (° 7 janvier 1864).
 Andreï Platonov, écrivain russe (° 1er septembre 1899).
@@ -564,9 +615,43 @@
 André Pécoud, peintre, illustrateur et affichiste français (° 22 juillet 1880).
 30 janvier :
 Jin Yunpeng, général et homme politique chinois (° 1877).
-Ferdinand Porsche, ingénieur allemand, créateur de la Porsche et de la Volkswagen (° 3 septembre 1875).
-Février
-3 février : Fréhel chanteuse française (° 13 juillet 1891).
+Ferdinand Porsche, ingénieur allemand, créateur de la Porsche et de la Volkswagen (° 3 septembre 1875).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1951</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1951</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 février : Fréhel chanteuse française (° 13 juillet 1891).
 6 février : Leopoldo Melo, avocat, homme politique, enseignant universitaire et diplomate argentin (° 15 novembre 1869).
 7 février : Edna Brower, femme de John Diefenbaker.
 8 février : Émile Ancelet, peintre pointilliste français, taxidermiste et collectionneur (° 24 mai 1865).
@@ -574,9 +659,43 @@
 19 février : André Gide, écrivain français (° 22 novembre 1869).
 21 février : Constantin Ganesco, peintre et sculpteur roumain (° 12 avril 1864).
 22 février : Domingo Arrillaga, joueur et entraîneur de football espagnol (° 11 février 1890).
-26 février : Sabiha Kasimati, ichtyologue albanaise (° 15 septembre 1912).
-Mars
-2 mars : Ľudmila Podjavorinská, écrivaine tchécoslovaque (° 26 avril 1872).
+26 février : Sabiha Kasimati, ichtyologue albanaise (° 15 septembre 1912).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1951</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1951</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2 mars : Ľudmila Podjavorinská, écrivaine tchécoslovaque (° 26 avril 1872).
 13 mars : Oskar C. Posa, compositeur, maître de chapelle et professeur de musique classique autrichien (° 16 janvier 1873).
 22 mars : Maurice Lobre, peintre français (° 17 novembre 1862).
 23 mars : Numa Ayrinhac, peintre franco-argentin (° 5 septembre 1881).
@@ -584,9 +703,43 @@
 31 mars :
 Edmée Delebecque, poétesse, peintre et graveuse française (° 9 avril 1880).
 Ralph Forbes, acteur anglais (° 30 septembre 1896).
-Georg H. Schnell, acteur allemand  (° 11 avril 1878).
-Avril
-3 avril : Leo Sheffield, acteur britannique (° 15 novembre 1878).
+Georg H. Schnell, acteur allemand  (° 11 avril 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1951</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1951</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3 avril : Leo Sheffield, acteur britannique (° 15 novembre 1878).
 4 avril : Georges Mathot, footballeur belge (° 26 février 1886).
 5 avril : Edward Rigby, acteur et metteur en scène anglais (° 5 février 1879).
 7 avril : Henri Gustave Jossot, dessinateur, caricaturiste, peintre, affichiste et écrivain libertaire français (° 16 avril 1866).
@@ -596,9 +749,43 @@
 Jules Berry, acteur et réalisateur français (° 9 février 1883).
 Louis Degallaix, peintre français (° 5 juillet 1877).
 29 avril : Ludwig Wittgenstein, philosophe et logicien britannique d'origine autrichienne (° 26 avril 1889).
-? avril :  Francesc Vinyals, footballeur espagnol (° 10 décembre 1897).
-Mai
-1er mai : Nagai Takashi,médecin et écrivain japonais, témoin de la bombe atomique de Nagasaki (° 3 février 1908).
+? avril :  Francesc Vinyals, footballeur espagnol (° 10 décembre 1897).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1951</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1951</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : Nagai Takashi,médecin et écrivain japonais, témoin de la bombe atomique de Nagasaki (° 3 février 1908).
 3 mai : Homero Manzi, poète, journaliste, homme politique et directeur de cinéma argentin (° 1er novembre 1907).
 5 mai : Miquel Valdés, footballeur et entrepreneur espagnol (° 13 octobre 1867).
 6 mai : Henry Carton de Wiart, écrivain et homme politique belge (° 31 janvier 1869).
@@ -612,9 +799,43 @@
 14 mai : « El Gordito » (José Carmona García), matador espagnol (° 13 décembre 1883).
 16 mai : Sammy Brooks, acteur américain (° 10 juillet 1891).
 18 mai : Marcel Tournier, harpiste et compositeur français (° 5 juin 1879).
-31 mai : Louis Charlot, peintre français (° 26 avril 1878).
-Juin
-2 juin :
+31 mai : Louis Charlot, peintre français (° 26 avril 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1951</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1951</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin :
 Alain, philosophe français (° 3 mars 1868).
 John Maynard Hedstrom, homme d'affaires et homme politique fidjien (° 22 février 1872).
 7 juin : Werner Braune, membre allemand de la police nazie et de l'organisation militaire de la Schutzstaffel (° 11 avril 1909).
@@ -626,9 +847,43 @@
 19 juin : Albert Bertelin, compositeur français (° 26 juillet 1872).
 26 juin : Georges Sérès, coureur cycliste français (° 6 avril 1887).
 27 juin : Edmond-Marie Poullain, peintre français (° 24 janvier 1878).
-29 juin : Serse Coppi, coureur cycliste italien (° 19 mars 1923).
-Juillet
-5 juillet : Archibald Clark Kerr, diplomate britannique (° 17 mars 1882).
+29 juin : Serse Coppi, coureur cycliste italien (° 19 mars 1923).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1951</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1951</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5 juillet : Archibald Clark Kerr, diplomate britannique (° 17 mars 1882).
 7 juillet : Henry Bischoff, peintre, illustrateur et graveur suisse (° 16 juin 1882).
 8 juillet :
 Willy Gervin, coureur cycliste danois (° 28 novembre 1903).
@@ -647,9 +902,43 @@
 21 juillet : Adam Stefan Sapieha, cardinal polonais, archevêque de Cracovie (° 14 mai 1867).
 23 juillet :
 Philippe Pétain, maréchal de France et homme d'État français (° 24 avril 1856).
-Robert Flaherty, cinéaste américain (° 16 février 1884).
-Août
-6 août : Berthe Mouchel, peintre française (° 8 août 1864).
+Robert Flaherty, cinéaste américain (° 16 février 1884).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1951</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1951</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>6 août : Berthe Mouchel, peintre française (° 8 août 1864).
 8 août : Theo Verbeeck, footballeur belge (° 17 juillet 1889).
 7 août : Albert Charpentier, peintre français (° 18 décembre 1878).
 11 août : Albert Aubry, homme politique et résistant français (° 8 décembre 1892).
@@ -667,9 +956,43 @@
 31 août :
 Maurice Herbster, aéronaute et pionnier de l'aviation français (° 2 janvier 1870).
 Kim Chaek, général et homme politique nord-coréen (° 14 août 1903).
-Léon Henri Ruffe, peintre et graveur français (° 29 avril 1864).
-Septembre
-1er septembre :
+Léon Henri Ruffe, peintre et graveur français (° 29 avril 1864).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1951</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1951</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre :
 Nellie McClung, féministe canadienne (° 20 octobre 1873).
 Louis Lavelle, philosophe français (° 15 juillet 1883).
 2 septembre : Maurice Bonney, coureur cycliste français (° 30 mai 1899).
@@ -679,9 +1002,43 @@
 13 septembre : Geoffrey Forrest Hughes, aviateur australien (° 12 juillet 1895).
 17 septembre : Tyra Kleen, peintre suédoise (° 29 mars 1874).
 18 septembre : Constant Huret, coureur cycliste français (° 26 janvier 1870).
-29 septembre : Ganpat, écrivain britannique (° 23 février 1886).
-Octobre
-2 octobre : « El Sargento » (Guillermo Rodríguez Martínez), matador péruvien (° 11 juillet 1915).
+29 septembre : Ganpat, écrivain britannique (° 23 février 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1951</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1951</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 octobre : « El Sargento » (Guillermo Rodríguez Martínez), matador péruvien (° 11 juillet 1915).
 5 octobre : Henriette Desportes, peintre française (° 18 avril 1877).
 7 octobre : Robert Delétang, peintre portraitiste et paysagiste français (° 24 février 1874).
 12 octobre : Gendün Chöphel, moine, érudit, poète et peintre tibétain (° 1903).
@@ -691,16 +1048,84 @@
 23 octobre : Jasper Garnett, homme politique fidjien (° vers 1889).
 28 octobre : Francis Lister, acteur britannique (° 2 avril 1899).
 29 octobre : Réginald, acteur belge (° 29 décembre 1881).
-31 octobre : Alfred Chabloz, peintre suisse (° 24 octobre 1866).
-Novembre
-3 novembre : Louis Piérard, homme politique belge (° 6 février 1886).
+31 octobre : Alfred Chabloz, peintre suisse (° 24 octobre 1866).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1951</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1951</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3 novembre : Louis Piérard, homme politique belge (° 6 février 1886).
 4 novembre : Ernesto Ambrosini, athlète italien, spécialiste du 3 000 mètres (° 29 septembre 1894).
 13 novembre : Nikolaï Medtner, compositeur et pianiste russe (° 5 janvier 1880).
 14 novembre : Ludovico Chigi Albani della Rovere, religieux italien, 76e Grand-Maître de l'Ordre de Malte de 1931 à 1951. (° 10 juillet 1866)
 19 novembre : Augustin Fliche, historien français (° 19 novembre 1884).
-23 novembre : Henri Collet, professeur de littérature espagnole, compositeur et critique musical français (° 5 novembre 1885).
-Décembre
-4 décembre : Pedro Salinas, poète espagnol de la Génération de 27 (° 27 novembre 1891).
+23 novembre : Henri Collet, professeur de littérature espagnole, compositeur et critique musical français (° 5 novembre 1885).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1951</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1951</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>4 décembre : Pedro Salinas, poète espagnol de la Génération de 27 (° 27 novembre 1891).
 5 décembre : Abanîndranâth Tagore, écrivain indien (° 7 août 1871).
 11 décembre : Hervé Deniel, lutteur français (° 14 février 1899).
 13 décembre : Selim Palmgren, pianiste et compositeur finlandais (° 16 février 1878).
